--- a/app/0100_Base/UIControl/state/doc/UITest01Control.xlsx
+++ b/app/0100_Base/UIControl/state/doc/UITest01Control.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708BA14C-F76F-4686-A64E-52668FE1596A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F215FD9-251C-4F68-8195-4A52D009D461}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,22 +239,6 @@
     <t>!uuid</t>
   </si>
   <si>
-    <t xml:space="preserve">:output=UITest01Control_created.cs_x000D_
-::tempfunc=template-func.txt_x000D_
-:enc=utf-8_x000D_
-::_x000D_
-public partial class UITest01Control : StateManager {_x000D_
-_x000D_
-    public void Start()_x000D_
-    {_x000D_
-        Goto(S_START);_x000D_
-    }_x000D_
-_x000D_
-    $contents2$_x000D_
-}_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[setting]_x000D_
 _x000D_
 converter=psggConverterLib.dll_x000D_
@@ -716,8 +700,28 @@
     <t>m_E</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/20 14:18:57
-; * pssgEditor version : 0.7.0.b0081ca2ae62b99c38b127566c8ee8eedac0f9a6
+    <t xml:space="preserve">:output=UITest01Control_created.cs_x000D_
+::tempfunc=template-func.txt_x000D_
+:enc=utf-8_x000D_
+::_x000D_
+public partial class UITest01Control : UIControlApi {_x000D_
+_x000D_
+    public void Start()_x000D_
+    {_x000D_
+        Goto(S_START);_x000D_
+    }_x000D_
+    public bool IsEnd()_x000D_
+    {_x000D_
+        return CheckState(S_END);_x000D_
+    }_x000D_
+_x000D_
+    $contents2$_x000D_
+}_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/03 10:25:45
+; * pssgEditor version : 0.8.0.26aef6b743ebec1f242ef0bfbac88333d42a172f
 psggfile=@@@
 UITest01Control.psgg
 @@@
@@ -734,7 +738,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Changed an arrow direction
+Initilized
 @@@
 target_pathdir=@@@
 /
@@ -1463,22 +1467,22 @@
         <v>29</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="O2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="Q2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="12" customFormat="1" ht="37.5">
@@ -1514,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="O3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="Q3" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="16" customFormat="1" ht="18.75" customHeight="1">
@@ -1557,25 +1561,25 @@
         <v>25</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="16" t="s">
         <v>9</v>
@@ -1642,22 +1646,22 @@
         <v>31</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="N9" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="O9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="18" t="s">
-        <v>105</v>
-      </c>
       <c r="Q9" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="18" customFormat="1">
@@ -1689,19 +1693,19 @@
         <v>11</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="18" customFormat="1">
@@ -1728,22 +1732,22 @@
         <v>33</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M11" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="N11" s="18" t="s">
-        <v>87</v>
-      </c>
       <c r="O11" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="18" customFormat="1">
@@ -1767,25 +1771,25 @@
         <v>19</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L12" s="18" t="s">
         <v>19</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="18" customFormat="1">
@@ -1893,58 +1897,58 @@
         <v>52</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="18" customFormat="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="G16" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="18" customFormat="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="M17" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="N17" s="18" t="s">
-        <v>93</v>
-      </c>
       <c r="O17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="18" t="s">
-        <v>108</v>
-      </c>
       <c r="Q17" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="18" customFormat="1">
@@ -2050,37 +2054,37 @@
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
       <c r="G29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="24" customFormat="1"/>
@@ -2098,37 +2102,37 @@
         <v>14</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="24" customFormat="1" ht="18.75" customHeight="1">
@@ -2160,22 +2164,22 @@
         <v>35</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O32" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="P32" s="24" t="s">
-        <v>110</v>
-      </c>
       <c r="Q32" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2214,7 +2218,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +2238,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2257,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2276,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
